--- a/Relatorio_anuncios_patrocinados_07d_total_SP.xlsx
+++ b/Relatorio_anuncios_patrocinados_07d_total_SP.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08efa3ad722ed28c/Aplicativos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{399775C7-39C2-4611-A5AC-29668B9BFD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35EE8F95-78AD-4DD1-B8EF-8FA78F2A7CBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93466423-FBDC-4F38-8EB1-774C91DEF96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Anúncios patrocinados" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relatório Anúncios patrocinados'!$A$2:$T$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relatório Anúncios patrocinados'!$A$2:$T$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="109">
   <si>
     <t>Desde</t>
   </si>
@@ -244,7 +244,7 @@
   </si>
   <si>
     <r>
-      <t>Relatório de publicidade por anúncios patrocinados gerados em 14-jul-2025</t>
+      <t>Relatório de publicidade por anúncios patrocinados gerados em 25-jul-2025</t>
     </r>
     <r>
       <rPr>
@@ -254,7 +254,7 @@
         <rFont val="Proxima Nova"/>
       </rPr>
       <t xml:space="preserve"> 
-Últimos 15 dias</t>
+Últimos 7 dias</t>
     </r>
   </si>
   <si>
@@ -267,14 +267,14 @@
         <rFont val="Proxima Nova"/>
       </rPr>
       <t xml:space="preserve"> 
-(Os valores das métricas correspondem a: Últimos 15 dias)</t>
+(Os valores das métricas correspondem a: Últimos 7 dias)</t>
     </r>
   </si>
   <si>
-    <t>29-jun-2025</t>
-  </si>
-  <si>
-    <t>13-jul-2025</t>
+    <t>18-jul-2025</t>
+  </si>
+  <si>
+    <t>24-jul-2025</t>
   </si>
   <si>
     <t>Ads 1kg nosso mel</t>
@@ -307,282 +307,192 @@
     <t>MLB3946298695</t>
   </si>
   <si>
-    <t>Ads 280 aroeira</t>
-  </si>
-  <si>
-    <t>Mel Melbras Aroeira 280gr - Melbras - Mel Do Brasil</t>
-  </si>
-  <si>
-    <t>MLB5107726640</t>
+    <t>Ads 280 Silvestre Orgânico</t>
+  </si>
+  <si>
+    <t>Mel Orgânico Silvestre Melbras 280g</t>
+  </si>
+  <si>
+    <t>MLB3937071855</t>
+  </si>
+  <si>
+    <t>Ads 3 barras de cereal nuts</t>
+  </si>
+  <si>
+    <t>Barra De Cereal Snacks Pinati Nuts Banana - Caixa Com 20un</t>
+  </si>
+  <si>
+    <t>MLB5446377122</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Barra De Cereal Snacks Pinati Nuts Coco - Caixa Com 20un</t>
+  </si>
+  <si>
+    <t>MLB5446432906</t>
+  </si>
+  <si>
+    <t>Barra De Cereal Snacks Pinati Nuts Original - Caixa Com 20un</t>
+  </si>
+  <si>
+    <t>MLB5446294942</t>
+  </si>
+  <si>
+    <t>Barra De Nuts Pinati Banana 600g Display (20x30g)</t>
+  </si>
+  <si>
+    <t>MLB4115242285</t>
+  </si>
+  <si>
+    <t>Caixa Barra Pinati Nuts Coco 30g Com 20un 600g - Vegana</t>
+  </si>
+  <si>
+    <t>MLB5483860632</t>
+  </si>
+  <si>
+    <t>Ads 300 Laranjeira</t>
+  </si>
+  <si>
+    <t>Mel Puro Flores Laranjeira- Melbras Squeeze 300g- Mel Brasil</t>
+  </si>
+  <si>
+    <t>MLB5429119198</t>
+  </si>
+  <si>
+    <t>ads 500 nosso mel</t>
+  </si>
+  <si>
+    <t>Mel Silvestre 500g - Nosso Mel Emvase Bisnaga Tradicional De Mel</t>
+  </si>
+  <si>
+    <t>MLB5212862454</t>
+  </si>
+  <si>
+    <t>Ads Cera de Abelha</t>
+  </si>
+  <si>
+    <t>Cera De Abelha Pura 1kg</t>
+  </si>
+  <si>
+    <t>MLB3902454363</t>
+  </si>
+  <si>
+    <t>Ads Ceras hidrossolúvel</t>
+  </si>
+  <si>
+    <t>Cera Depilatória Belbras Negra Natural Hidrossolúvel 2,7kg</t>
+  </si>
+  <si>
+    <t>MLB5274859860</t>
+  </si>
+  <si>
+    <t>Desativada</t>
+  </si>
+  <si>
+    <t>Cera Depilatória Hidrossolúvel Mel Belbras Natural 1,3 Kg</t>
+  </si>
+  <si>
+    <t>MLB5456516144</t>
+  </si>
+  <si>
+    <t>Cera Depilatória Hidrossolúvel Mel Belbras Natural 2,7 Kg</t>
+  </si>
+  <si>
+    <t>MLB5456450346</t>
+  </si>
+  <si>
+    <t>Cera Depilatória Hidrossolúvel Mel Belbras Natural 300g</t>
+  </si>
+  <si>
+    <t>MLB5454844246</t>
+  </si>
+  <si>
+    <t>Cera Depilatória Hidrossolúvel Mel Belbras Natural 600g</t>
+  </si>
+  <si>
+    <t>MLB5456374138</t>
+  </si>
+  <si>
+    <t>Cera Depilatória Hidrossolúvel Negra Belbras Natural 300g</t>
+  </si>
+  <si>
+    <t>MLB5454818714</t>
+  </si>
+  <si>
+    <t>Cera Depilatória Hidrossolúvel Negra Belbras Natural 600g</t>
+  </si>
+  <si>
+    <t>MLB5446965224</t>
+  </si>
+  <si>
+    <t>Cera Hidrossolúvel Natural Vegana Camomila Belbras - 1,3kg</t>
+  </si>
+  <si>
+    <t>MLB4100187373</t>
+  </si>
+  <si>
+    <t>Cera Hidrossolúvel Natural Vegana Camomila Belbras - 2,7kg</t>
+  </si>
+  <si>
+    <t>MLB4100187851</t>
   </si>
   <si>
     <t>Pausado</t>
   </si>
   <si>
-    <t>MLB5122754916</t>
-  </si>
-  <si>
-    <t>Mel Orgânico Melbras Aroeira 280gr - Mel Do Brasil</t>
-  </si>
-  <si>
-    <t>MLB5246291890</t>
+    <t>Cera Hidrossolúvel Natural Vegana Camomila Belbras - 300g</t>
+  </si>
+  <si>
+    <t>MLB4100199233</t>
+  </si>
+  <si>
+    <t>Balde aroeira 5kg</t>
+  </si>
+  <si>
+    <t>Mel Aroeira Em Balde 5kg</t>
+  </si>
+  <si>
+    <t>MLB5233796440</t>
+  </si>
+  <si>
+    <t>pinati cups</t>
+  </si>
+  <si>
+    <t>Pinati Protein Cups Creme De Avelã Unitário 21g- Cx Com 18un</t>
+  </si>
+  <si>
+    <t>MLB5446698402</t>
+  </si>
+  <si>
+    <t>Whey Barra Proteína Cookies &amp; Cream 21g - Caixa 18un Pinati</t>
+  </si>
+  <si>
+    <t>MLB5454829390</t>
+  </si>
+  <si>
+    <t>Whey Barra Proteína Zero, Amendoim 21g (caixa 18un) - Pinati</t>
+  </si>
+  <si>
+    <t>MLB5455478786</t>
+  </si>
+  <si>
+    <t>Silvestre Supramel- Balde 5 Kg</t>
+  </si>
+  <si>
+    <t>Mel 100% Puro Abelhas Silvestre Supramel - Balde 5 Kg</t>
+  </si>
+  <si>
+    <t>MLB3875806749</t>
+  </si>
+  <si>
+    <t>MLB3875846755</t>
   </si>
   <si>
     <t>Movido</t>
   </si>
   <si>
-    <t>Ads 280 Eucalipto</t>
-  </si>
-  <si>
-    <t>Mel Flores De Eucalipto 280g Pote</t>
-  </si>
-  <si>
-    <t>MLB3960525187</t>
-  </si>
-  <si>
-    <t>Ads 280 Silvestre</t>
-  </si>
-  <si>
-    <t>Composto De Mel E Extrato De Própolis 64g | Contém 16 Sachês</t>
-  </si>
-  <si>
-    <t>MLB3947876061</t>
-  </si>
-  <si>
-    <t>MLB3937009741</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Mel De Abelha 100% Puro 220gr Florada Silvestre - Melbras</t>
-  </si>
-  <si>
-    <t>MLB5166209232</t>
-  </si>
-  <si>
-    <t>Mel Puro Premium Flor De Laranjeira Squeeze 280g - Melbras</t>
-  </si>
-  <si>
-    <t>MLB5245420632</t>
-  </si>
-  <si>
-    <t>Mel Puro Premium Silvestre Squeeze 280g - Melbras</t>
-  </si>
-  <si>
-    <t>MLB3879722283</t>
-  </si>
-  <si>
-    <t>Mel Puro Silvestre Em Sachê 64g | Contém 16 Sachês.</t>
-  </si>
-  <si>
-    <t>MLB3937061173</t>
-  </si>
-  <si>
-    <t>Mel Silvestre 500g - Frasco Líquido Melbras</t>
-  </si>
-  <si>
-    <t>MLB5188664772</t>
-  </si>
-  <si>
-    <t>Mel Silvestre 500g - Nosso Mel Emvase Bisnaga Tradicional De Mel</t>
-  </si>
-  <si>
-    <t>MLB5212862454</t>
-  </si>
-  <si>
-    <t>Melbras Mel Puro Silvestre Em Sachê 64g Contém 16 Unidades</t>
-  </si>
-  <si>
-    <t>MLB3947942297</t>
-  </si>
-  <si>
-    <t>Ads 280 Silvestre Orgânico</t>
-  </si>
-  <si>
-    <t>Mel Orgânico Silvestre Melbras 280g</t>
-  </si>
-  <si>
-    <t>MLB3937071855</t>
-  </si>
-  <si>
-    <t>Ads 3 barras de cereal nuts</t>
-  </si>
-  <si>
-    <t>Barra De Cereal Snacks Pinati Nuts Banana - Caixa Com 20un</t>
-  </si>
-  <si>
-    <t>MLB5446377122</t>
-  </si>
-  <si>
-    <t>Barra De Cereal Snacks Pinati Nuts Coco - Caixa Com 20un</t>
-  </si>
-  <si>
-    <t>MLB5446432906</t>
-  </si>
-  <si>
-    <t>Barra De Cereal Snacks Pinati Nuts Original - Caixa Com 20un</t>
-  </si>
-  <si>
-    <t>MLB5446294942</t>
-  </si>
-  <si>
-    <t>Barra De Nuts Pinati Banana 600g Display (20x30g)</t>
-  </si>
-  <si>
-    <t>MLB4115242285</t>
-  </si>
-  <si>
-    <t>Caixa Barra Pinati Nuts Coco 30g Com 20un 600g - Vegana</t>
-  </si>
-  <si>
-    <t>MLB5483860632</t>
-  </si>
-  <si>
-    <t>Ads 300 Laranjeira</t>
-  </si>
-  <si>
-    <t>Mel Puro Flores Laranjeira- Melbras Squeeze 300g- Mel Brasil</t>
-  </si>
-  <si>
-    <t>MLB5429119198</t>
-  </si>
-  <si>
-    <t>ads 500 nosso mel</t>
-  </si>
-  <si>
-    <t>Ads Cera de Abelha</t>
-  </si>
-  <si>
-    <t>Cera De Abelha Pura 1kg</t>
-  </si>
-  <si>
-    <t>MLB3902454363</t>
-  </si>
-  <si>
-    <t>Ads Ceras hidrossolúvel</t>
-  </si>
-  <si>
-    <t>Cera Depilatória Belbras Negra Natural Hidrossolúvel 2,7kg</t>
-  </si>
-  <si>
-    <t>MLB5274859860</t>
-  </si>
-  <si>
-    <t>Desativada</t>
-  </si>
-  <si>
-    <t>Cera Depilatória Hidrossolúvel Mel Belbras Natural 1,3 Kg</t>
-  </si>
-  <si>
-    <t>MLB5456516144</t>
-  </si>
-  <si>
-    <t>Cera Depilatória Hidrossolúvel Mel Belbras Natural 2,7 Kg</t>
-  </si>
-  <si>
-    <t>MLB5456450346</t>
-  </si>
-  <si>
-    <t>Cera Depilatória Hidrossolúvel Mel Belbras Natural 300g</t>
-  </si>
-  <si>
-    <t>MLB5454844246</t>
-  </si>
-  <si>
-    <t>Cera Depilatória Hidrossolúvel Mel Belbras Natural 600g</t>
-  </si>
-  <si>
-    <t>MLB5456374138</t>
-  </si>
-  <si>
-    <t>Cera Depilatória Hidrossolúvel Negra Belbras Natural 300g</t>
-  </si>
-  <si>
-    <t>MLB5454818714</t>
-  </si>
-  <si>
-    <t>Cera Depilatória Hidrossolúvel Negra Belbras Natural 600g</t>
-  </si>
-  <si>
-    <t>MLB5446965224</t>
-  </si>
-  <si>
-    <t>Cera Hidrossolúvel Natural Vegana Camomila Belbras - 1,3kg</t>
-  </si>
-  <si>
-    <t>MLB4100187373</t>
-  </si>
-  <si>
-    <t>Cera Hidrossolúvel Natural Vegana Camomila Belbras - 2,7kg</t>
-  </si>
-  <si>
-    <t>MLB4100187851</t>
-  </si>
-  <si>
-    <t>Cera Hidrossolúvel Natural Vegana Camomila Belbras - 300g</t>
-  </si>
-  <si>
-    <t>MLB4100199233</t>
-  </si>
-  <si>
-    <t>Balde aroeira 5kg</t>
-  </si>
-  <si>
-    <t>Mel Aroeira Em Balde 5kg</t>
-  </si>
-  <si>
-    <t>MLB5233796440</t>
-  </si>
-  <si>
-    <t>balde eucalipto 5kg</t>
-  </si>
-  <si>
-    <t>Mel Eucalipto Em Balde 5kg</t>
-  </si>
-  <si>
-    <t>MLB5386036532</t>
-  </si>
-  <si>
-    <t>MLB3947902587</t>
-  </si>
-  <si>
-    <t>Crescimento kit 3 flores</t>
-  </si>
-  <si>
-    <t>Kit De Mel Três Floradas, Mel Silvestre, Aroeira, Laranjeira - 840g</t>
-  </si>
-  <si>
-    <t>MLB5245394736</t>
-  </si>
-  <si>
-    <t>Hidrossolúvel negra 2,7kg</t>
-  </si>
-  <si>
-    <t>Mel flores laranjeira 280g</t>
-  </si>
-  <si>
-    <t>Orgânico aroeira 280</t>
-  </si>
-  <si>
-    <t>Rent Nosso mel 220</t>
-  </si>
-  <si>
-    <t>sache mel e própolis</t>
-  </si>
-  <si>
-    <t>Silvestre Supramel- Balde 5 Kg</t>
-  </si>
-  <si>
-    <t>Mel 100% Puro Abelhas Silvestre Supramel - Balde 5 Kg</t>
-  </si>
-  <si>
-    <t>MLB3875806749</t>
-  </si>
-  <si>
-    <t>MLB3875846755</t>
-  </si>
-  <si>
     <t>Mel Puro Abelha Premium Aroeira 280g</t>
   </si>
   <si>
@@ -599,6 +509,27 @@
   </si>
   <si>
     <t>MLB3875887305</t>
+  </si>
+  <si>
+    <t>whey zero</t>
+  </si>
+  <si>
+    <t>Barra Slim Whey Beijinho Sem Açúcar 35g Com 16 Un Pinati</t>
+  </si>
+  <si>
+    <t>MLB5476536994</t>
+  </si>
+  <si>
+    <t>Whey Barra Proteína Chocolate Belga 35g (cx 16 Und) - Pinati</t>
+  </si>
+  <si>
+    <t>MLB5454860242</t>
+  </si>
+  <si>
+    <t>Whey Barra Proteína Zero, Pistache 35g (cx 16 Und) - Pinati</t>
+  </si>
+  <si>
+    <t>MLB4104691873</t>
   </si>
 </sst>
 </file>
@@ -777,10 +708,10 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -999,60 +930,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF7E61D7"/>
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="40.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" customWidth="1"/>
-    <col min="10" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="19.36328125" customWidth="1"/>
-    <col min="13" max="13" width="18.36328125" customWidth="1"/>
-    <col min="14" max="15" width="22.7265625" customWidth="1"/>
-    <col min="16" max="17" width="21.81640625" customWidth="1"/>
-    <col min="18" max="18" width="22.81640625" customWidth="1"/>
-    <col min="19" max="20" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="10" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="15" width="22.6640625" customWidth="1"/>
+    <col min="16" max="17" width="21.77734375" customWidth="1"/>
+    <col min="18" max="18" width="22.77734375" customWidth="1"/>
+    <col min="19" max="20" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="54" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" ht="54" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1136,49 +1067,49 @@
         <v>27</v>
       </c>
       <c r="G3" s="9">
-        <v>213464</v>
+        <v>90700</v>
       </c>
       <c r="H3" s="9">
-        <v>1207</v>
+        <v>447</v>
       </c>
       <c r="I3" s="9">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="J3" s="9">
-        <v>0.56999999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="K3" s="9">
-        <v>19.14</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="L3" s="9">
-        <v>9610.740234375</v>
+        <v>3472.030029296875</v>
       </c>
       <c r="M3" s="9">
-        <v>1504.76</v>
+        <v>414.86</v>
       </c>
       <c r="N3" s="9">
-        <v>15.66</v>
+        <v>11.95</v>
       </c>
       <c r="O3" s="9">
-        <v>638.69000000000005</v>
+        <v>836.92</v>
       </c>
       <c r="P3" s="9">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="9">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R3" s="9">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="S3" s="9">
-        <v>9266.0205078125</v>
+        <v>3457.829833984375</v>
       </c>
       <c r="T3" s="9">
-        <v>344.72000122070313</v>
+        <v>14.199999809265137</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1198,7 +1129,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="9">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -1240,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -1260,16 +1191,16 @@
         <v>27</v>
       </c>
       <c r="G5" s="9">
-        <v>64437</v>
+        <v>46862</v>
       </c>
       <c r="H5" s="9">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="I5" s="9">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="J5" s="9">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>31</v>
@@ -1278,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="9">
-        <v>55.89</v>
+        <v>18.46</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>31</v>
@@ -1302,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1319,52 +1250,52 @@
         <v>36</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>27466</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>31</v>
+        <v>59</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="K6" s="9">
+        <v>8.4700000000000006</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>98.740005493164063</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>31</v>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="N6" s="9">
+        <v>36.76</v>
+      </c>
+      <c r="O6" s="9">
+        <v>272.01</v>
       </c>
       <c r="P6" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6" s="9">
-        <v>0</v>
+        <v>80.959999084472656</v>
       </c>
       <c r="T6" s="9">
-        <v>0</v>
+        <v>17.780000686645508</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1372,16 +1303,16 @@
         <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
@@ -1426,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1434,17 +1365,17 @@
         <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="9">
         <v>0</v>
       </c>
@@ -1488,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1496,7 +1427,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>43</v>
@@ -1508,49 +1439,49 @@
         <v>27</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>21299</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.33</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="K9" s="9">
+        <v>10.91</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>348.39999389648438</v>
       </c>
       <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>31</v>
+        <v>73</v>
+      </c>
+      <c r="N9" s="9">
+        <v>20.95</v>
+      </c>
+      <c r="O9" s="9">
+        <v>477.26</v>
       </c>
       <c r="P9" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S9" s="9">
-        <v>0</v>
+        <v>281.17001342773438</v>
       </c>
       <c r="T9" s="9">
-        <v>0</v>
+        <v>67.230003356933594</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1558,61 +1489,61 @@
         <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="K10" s="9">
+        <v>100</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <v>111.26000213623047</v>
       </c>
       <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>31</v>
+        <v>3.89</v>
+      </c>
+      <c r="N10" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="O10" s="9">
+        <v>2860.2</v>
       </c>
       <c r="P10" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="9">
         <v>0</v>
       </c>
       <c r="R10" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S10" s="9">
-        <v>0</v>
+        <v>111.26000213623047</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1620,28 +1551,28 @@
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1.61</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>31</v>
@@ -1650,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>31</v>
@@ -1682,16 +1613,16 @@
         <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -1736,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:20" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1744,61 +1675,61 @@
         <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G13" s="9">
-        <v>0</v>
+        <v>36870</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="K13" s="9">
+        <v>15.48</v>
       </c>
       <c r="L13" s="9">
-        <v>0</v>
+        <v>450.41000366210938</v>
       </c>
       <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>31</v>
+        <v>41.45</v>
+      </c>
+      <c r="N13" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1086.5999999999999</v>
       </c>
       <c r="P13" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S13" s="9">
-        <v>0</v>
+        <v>270.60000610351563</v>
       </c>
       <c r="T13" s="9">
-        <v>0</v>
+        <v>179.80999755859375</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:20" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -1806,61 +1737,61 @@
         <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="9">
+        <v>65298</v>
+      </c>
+      <c r="H14" s="9">
+        <v>246</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1.74</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="K14" s="9">
+        <v>14.23</v>
+      </c>
+      <c r="L14" s="9">
+        <v>3052.47998046875</v>
+      </c>
+      <c r="M14" s="9">
+        <v>427.23</v>
+      </c>
+      <c r="N14" s="9">
+        <v>14</v>
+      </c>
+      <c r="O14" s="9">
+        <v>714.48</v>
+      </c>
+      <c r="P14" s="9">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>1</v>
+      </c>
+      <c r="R14" s="9">
         <v>35</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>0</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0</v>
-      </c>
       <c r="S14" s="9">
-        <v>0</v>
+        <v>3022.719970703125</v>
       </c>
       <c r="T14" s="9">
-        <v>0</v>
+        <v>29.760000228881836</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="15" spans="1:20" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
@@ -1868,16 +1799,16 @@
         <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
@@ -1922,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="16" spans="1:20" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -1930,13 +1861,13 @@
         <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>27</v>
@@ -1984,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="17" spans="1:20" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -1992,16 +1923,16 @@
         <v>23</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -2046,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="18" spans="1:20" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -2054,16 +1985,16 @@
         <v>23</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -2108,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="19" spans="1:20" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
@@ -2116,16 +2047,16 @@
         <v>23</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
@@ -2170,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:20" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
@@ -2178,16 +2109,16 @@
         <v>23</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
@@ -2232,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:20" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
@@ -2240,17 +2171,17 @@
         <v>23</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="G21" s="9">
         <v>0</v>
       </c>
@@ -2294,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:20" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
@@ -2302,61 +2233,61 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="9">
-        <v>84641</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>233</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.78</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K22" s="9">
-        <v>17.600000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L22" s="9">
-        <v>861.15997314453125</v>
+        <v>0</v>
       </c>
       <c r="M22" s="9">
-        <v>180.73</v>
-      </c>
-      <c r="N22" s="9">
-        <v>20.99</v>
-      </c>
-      <c r="O22" s="9">
-        <v>476.49</v>
+        <v>0</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="P22" s="9">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R22" s="9">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="S22" s="9">
-        <v>729.9599609375</v>
+        <v>0</v>
       </c>
       <c r="T22" s="9">
-        <v>131.19999694824219</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:20" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
@@ -2364,28 +2295,28 @@
         <v>23</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G23" s="9">
-        <v>15855</v>
+        <v>0</v>
       </c>
       <c r="H23" s="9">
-        <v>15</v>
-      </c>
-      <c r="I23" s="9">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0.09</v>
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>31</v>
@@ -2394,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="9">
-        <v>36.99</v>
+        <v>0</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>31</v>
@@ -2418,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
@@ -2426,28 +2357,28 @@
         <v>23</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="G24" s="9">
-        <v>11027</v>
+        <v>0</v>
       </c>
       <c r="H24" s="9">
-        <v>5</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>31</v>
@@ -2456,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="9">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>31</v>
@@ -2480,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" spans="1:20" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
@@ -2488,61 +2419,61 @@
         <v>23</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="9">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>15</v>
-      </c>
-      <c r="I25" s="9">
-        <v>3.71</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K25" s="9">
-        <v>13.33</v>
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L25" s="9">
-        <v>114.27999877929688</v>
+        <v>0</v>
       </c>
       <c r="M25" s="9">
-        <v>55.67</v>
-      </c>
-      <c r="N25" s="9">
-        <v>48.71</v>
-      </c>
-      <c r="O25" s="9">
-        <v>205.28</v>
+        <v>0</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="P25" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="9">
         <v>0</v>
       </c>
       <c r="R25" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S25" s="9">
-        <v>114.27999877929688</v>
+        <v>0</v>
       </c>
       <c r="T25" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:20" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
@@ -2550,28 +2481,28 @@
         <v>23</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="9">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="H26" s="9">
-        <v>14</v>
-      </c>
-      <c r="I26" s="9">
-        <v>1.17</v>
-      </c>
-      <c r="J26" s="9">
-        <v>3.1</v>
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>31</v>
@@ -2580,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="9">
-        <v>16.329999999999998</v>
+        <v>0</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>31</v>
@@ -2604,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>22</v>
       </c>
@@ -2612,19 +2543,19 @@
         <v>23</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="9">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
@@ -2666,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:20" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -2674,28 +2605,28 @@
         <v>23</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="9">
-        <v>3991</v>
+        <v>0</v>
       </c>
       <c r="H28" s="9">
-        <v>2</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0.09</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>31</v>
@@ -2704,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="9">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>31</v>
@@ -2728,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" spans="1:20" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
@@ -2736,61 +2667,61 @@
         <v>23</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="9">
-        <v>111170</v>
+        <v>49574</v>
       </c>
       <c r="H29" s="9">
-        <v>344</v>
+        <v>131</v>
       </c>
       <c r="I29" s="9">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="J29" s="9">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="K29" s="9">
-        <v>18.600000000000001</v>
+        <v>7.63</v>
       </c>
       <c r="L29" s="9">
-        <v>1551.6397705078125</v>
+        <v>1389.940185546875</v>
       </c>
       <c r="M29" s="9">
-        <v>472.42</v>
+        <v>184.69</v>
       </c>
       <c r="N29" s="9">
-        <v>30.45</v>
+        <v>13.29</v>
       </c>
       <c r="O29" s="9">
-        <v>328.45</v>
+        <v>752.58</v>
       </c>
       <c r="P29" s="9">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="Q29" s="9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="R29" s="9">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="S29" s="9">
-        <v>1205.119873046875</v>
+        <v>1139.5999755859375</v>
       </c>
       <c r="T29" s="9">
-        <v>346.52001953125</v>
+        <v>250.33999633789063</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>22</v>
       </c>
@@ -2798,61 +2729,61 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G30" s="9">
-        <v>123623</v>
+        <v>0</v>
       </c>
       <c r="H30" s="9">
-        <v>523</v>
-      </c>
-      <c r="I30" s="9">
-        <v>1.45</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0.42</v>
-      </c>
-      <c r="K30" s="9">
-        <v>8.8000000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L30" s="9">
-        <v>4018.56005859375</v>
+        <v>0</v>
       </c>
       <c r="M30" s="9">
-        <v>760.26</v>
-      </c>
-      <c r="N30" s="9">
-        <v>18.920000000000002</v>
-      </c>
-      <c r="O30" s="9">
-        <v>528.58000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="P30" s="9">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="9">
         <v>0</v>
       </c>
       <c r="R30" s="9">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="S30" s="9">
-        <v>4018.56005859375</v>
+        <v>0</v>
       </c>
       <c r="T30" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>22</v>
       </c>
@@ -2860,19 +2791,19 @@
         <v>23</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G31" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H31" s="9">
         <v>0</v>
@@ -2914,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
@@ -2922,16 +2853,16 @@
         <v>23</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G32" s="9">
         <v>0</v>
@@ -2976,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" spans="1:20" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>22</v>
       </c>
@@ -2984,19 +2915,19 @@
         <v>23</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G33" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H33" s="9">
         <v>0</v>
@@ -3038,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:20" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>22</v>
       </c>
@@ -3046,16 +2977,16 @@
         <v>23</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
@@ -3100,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:20" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>22</v>
       </c>
@@ -3108,13 +3039,13 @@
         <v>23</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>27</v>
@@ -3162,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" spans="1:20" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>22</v>
       </c>
@@ -3170,13 +3101,13 @@
         <v>23</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>27</v>
@@ -3224,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" spans="1:20" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>22</v>
       </c>
@@ -3232,13 +3163,13 @@
         <v>23</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>27</v>
@@ -3286,1436 +3217,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>0</v>
-      </c>
-      <c r="R38" s="9">
-        <v>0</v>
-      </c>
-      <c r="S38" s="9">
-        <v>0</v>
-      </c>
-      <c r="T38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="9">
-        <v>3</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="9">
-        <v>0</v>
-      </c>
-      <c r="R39" s="9">
-        <v>0</v>
-      </c>
-      <c r="S39" s="9">
-        <v>0</v>
-      </c>
-      <c r="T39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="9">
-        <v>1</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O40" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P40" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="9">
-        <v>0</v>
-      </c>
-      <c r="R40" s="9">
-        <v>0</v>
-      </c>
-      <c r="S40" s="9">
-        <v>0</v>
-      </c>
-      <c r="T40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
-        <v>0</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P41" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="9">
-        <v>0</v>
-      </c>
-      <c r="R41" s="9">
-        <v>0</v>
-      </c>
-      <c r="S41" s="9">
-        <v>0</v>
-      </c>
-      <c r="T41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L42" s="9">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9">
-        <v>0</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P42" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="9">
-        <v>0</v>
-      </c>
-      <c r="R42" s="9">
-        <v>0</v>
-      </c>
-      <c r="S42" s="9">
-        <v>0</v>
-      </c>
-      <c r="T42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L43" s="9">
-        <v>0</v>
-      </c>
-      <c r="M43" s="9">
-        <v>0</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O43" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P43" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="9">
-        <v>0</v>
-      </c>
-      <c r="R43" s="9">
-        <v>0</v>
-      </c>
-      <c r="S43" s="9">
-        <v>0</v>
-      </c>
-      <c r="T43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="9">
-        <v>0</v>
-      </c>
-      <c r="H44" s="9">
-        <v>0</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L44" s="9">
-        <v>0</v>
-      </c>
-      <c r="M44" s="9">
-        <v>0</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O44" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P44" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>0</v>
-      </c>
-      <c r="R44" s="9">
-        <v>0</v>
-      </c>
-      <c r="S44" s="9">
-        <v>0</v>
-      </c>
-      <c r="T44" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L45" s="9">
-        <v>0</v>
-      </c>
-      <c r="M45" s="9">
-        <v>0</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P45" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="9">
-        <v>0</v>
-      </c>
-      <c r="R45" s="9">
-        <v>0</v>
-      </c>
-      <c r="S45" s="9">
-        <v>0</v>
-      </c>
-      <c r="T45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="9">
-        <v>26933</v>
-      </c>
-      <c r="H46" s="9">
-        <v>20</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="J46" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K46" s="9">
-        <v>10</v>
-      </c>
-      <c r="L46" s="9">
-        <v>40</v>
-      </c>
-      <c r="M46" s="9">
-        <v>18.53</v>
-      </c>
-      <c r="N46" s="9">
-        <v>46.33</v>
-      </c>
-      <c r="O46" s="9">
-        <v>215.87</v>
-      </c>
-      <c r="P46" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q46" s="9">
-        <v>0</v>
-      </c>
-      <c r="R46" s="9">
-        <v>2</v>
-      </c>
-      <c r="S46" s="9">
-        <v>40</v>
-      </c>
-      <c r="T46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="9">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" s="9">
-        <v>0</v>
-      </c>
-      <c r="M47" s="9">
-        <v>0</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P47" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="9">
-        <v>0</v>
-      </c>
-      <c r="R47" s="9">
-        <v>0</v>
-      </c>
-      <c r="S47" s="9">
-        <v>0</v>
-      </c>
-      <c r="T47" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L48" s="9">
-        <v>0</v>
-      </c>
-      <c r="M48" s="9">
-        <v>0</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P48" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="9">
-        <v>0</v>
-      </c>
-      <c r="R48" s="9">
-        <v>0</v>
-      </c>
-      <c r="S48" s="9">
-        <v>0</v>
-      </c>
-      <c r="T48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9">
-        <v>0</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L49" s="9">
-        <v>0</v>
-      </c>
-      <c r="M49" s="9">
-        <v>0</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P49" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="9">
-        <v>0</v>
-      </c>
-      <c r="R49" s="9">
-        <v>0</v>
-      </c>
-      <c r="S49" s="9">
-        <v>0</v>
-      </c>
-      <c r="T49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" s="9">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L50" s="9">
-        <v>0</v>
-      </c>
-      <c r="M50" s="9">
-        <v>0</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O50" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P50" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="9">
-        <v>0</v>
-      </c>
-      <c r="R50" s="9">
-        <v>0</v>
-      </c>
-      <c r="S50" s="9">
-        <v>0</v>
-      </c>
-      <c r="T50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L51" s="9">
-        <v>0</v>
-      </c>
-      <c r="M51" s="9">
-        <v>0</v>
-      </c>
-      <c r="N51" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O51" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P51" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="9">
-        <v>0</v>
-      </c>
-      <c r="R51" s="9">
-        <v>0</v>
-      </c>
-      <c r="S51" s="9">
-        <v>0</v>
-      </c>
-      <c r="T51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="9">
-        <v>38208</v>
-      </c>
-      <c r="H52" s="9">
-        <v>154</v>
-      </c>
-      <c r="I52" s="9">
-        <v>2.35</v>
-      </c>
-      <c r="J52" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="K52" s="9">
-        <v>6.49</v>
-      </c>
-      <c r="L52" s="9">
-        <v>1278.31005859375</v>
-      </c>
-      <c r="M52" s="9">
-        <v>362.54</v>
-      </c>
-      <c r="N52" s="9">
-        <v>28.36</v>
-      </c>
-      <c r="O52" s="9">
-        <v>352.6</v>
-      </c>
-      <c r="P52" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q52" s="9">
-        <v>4</v>
-      </c>
-      <c r="R52" s="9">
-        <v>10</v>
-      </c>
-      <c r="S52" s="9">
-        <v>976.79998779296875</v>
-      </c>
-      <c r="T52" s="9">
-        <v>301.510009765625</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L53" s="9">
-        <v>0</v>
-      </c>
-      <c r="M53" s="9">
-        <v>0</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O53" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P53" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="9">
-        <v>0</v>
-      </c>
-      <c r="R53" s="9">
-        <v>0</v>
-      </c>
-      <c r="S53" s="9">
-        <v>0</v>
-      </c>
-      <c r="T53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L54" s="9">
-        <v>0</v>
-      </c>
-      <c r="M54" s="9">
-        <v>0</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O54" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P54" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="9">
-        <v>0</v>
-      </c>
-      <c r="R54" s="9">
-        <v>0</v>
-      </c>
-      <c r="S54" s="9">
-        <v>0</v>
-      </c>
-      <c r="T54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="9">
-        <v>0</v>
-      </c>
-      <c r="M55" s="9">
-        <v>0</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="9">
-        <v>0</v>
-      </c>
-      <c r="R55" s="9">
-        <v>0</v>
-      </c>
-      <c r="S55" s="9">
-        <v>0</v>
-      </c>
-      <c r="T55" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L56" s="9">
-        <v>0</v>
-      </c>
-      <c r="M56" s="9">
-        <v>0</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P56" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="9">
-        <v>0</v>
-      </c>
-      <c r="R56" s="9">
-        <v>0</v>
-      </c>
-      <c r="S56" s="9">
-        <v>0</v>
-      </c>
-      <c r="T56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L57" s="9">
-        <v>0</v>
-      </c>
-      <c r="M57" s="9">
-        <v>0</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O57" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P57" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="9">
-        <v>0</v>
-      </c>
-      <c r="R57" s="9">
-        <v>0</v>
-      </c>
-      <c r="S57" s="9">
-        <v>0</v>
-      </c>
-      <c r="T57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="9">
-        <v>0</v>
-      </c>
-      <c r="M58" s="9">
-        <v>0</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P58" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="9">
-        <v>0</v>
-      </c>
-      <c r="R58" s="9">
-        <v>0</v>
-      </c>
-      <c r="S58" s="9">
-        <v>0</v>
-      </c>
-      <c r="T58" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" s="9">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9">
-        <v>0</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L59" s="9">
-        <v>0</v>
-      </c>
-      <c r="M59" s="9">
-        <v>0</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P59" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="9">
-        <v>0</v>
-      </c>
-      <c r="R59" s="9">
-        <v>0</v>
-      </c>
-      <c r="S59" s="9">
-        <v>0</v>
-      </c>
-      <c r="T59" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A60" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0</v>
-      </c>
-      <c r="H60" s="9">
-        <v>0</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L60" s="9">
-        <v>0</v>
-      </c>
-      <c r="M60" s="9">
-        <v>0</v>
-      </c>
-      <c r="N60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P60" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="9">
-        <v>0</v>
-      </c>
-      <c r="R60" s="9">
-        <v>0</v>
-      </c>
-      <c r="S60" s="9">
-        <v>0</v>
-      </c>
-      <c r="T60" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -5653,14 +4181,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A2:T60" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Mel Aroeira Em Balde 5kg"/>
-        <filter val="Mel De Abelha 100% Puro 1 Kg Florada Silvestre Melbras"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:T2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:T1"/>

--- a/Relatorio_anuncios_patrocinados_07d_total_SP.xlsx
+++ b/Relatorio_anuncios_patrocinados_07d_total_SP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08efa3ad722ed28c/Aplicativos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93466423-FBDC-4F38-8EB1-774C91DEF96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FAC6BFC-2BEA-4E42-8DBC-9DA237AD0493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="111">
   <si>
     <t>Desde</t>
   </si>
@@ -244,7 +244,7 @@
   </si>
   <si>
     <r>
-      <t>Relatório de publicidade por anúncios patrocinados gerados em 25-jul-2025</t>
+      <t>Relatório de publicidade por anúncios patrocinados gerados em 28-jul-2025</t>
     </r>
     <r>
       <rPr>
@@ -271,10 +271,10 @@
     </r>
   </si>
   <si>
-    <t>18-jul-2025</t>
-  </si>
-  <si>
-    <t>24-jul-2025</t>
+    <t>21-jul-2025</t>
+  </si>
+  <si>
+    <t>27-jul-2025</t>
   </si>
   <si>
     <t>Ads 1kg nosso mel</t>
@@ -512,6 +512,12 @@
   </si>
   <si>
     <t>whey zero</t>
+  </si>
+  <si>
+    <t>Barra Proteica Snack Pinati Slim Whey Churros 35g-cx C/16</t>
+  </si>
+  <si>
+    <t>MLB4104691649</t>
   </si>
   <si>
     <t>Barra Slim Whey Beijinho Sem Açúcar 35g Com 16 Un Pinati</t>
@@ -937,7 +943,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
@@ -1067,46 +1073,46 @@
         <v>27</v>
       </c>
       <c r="G3" s="9">
-        <v>90700</v>
+        <v>93763</v>
       </c>
       <c r="H3" s="9">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="I3" s="9">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="J3" s="9">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="K3" s="9">
-        <v>17.899999999999999</v>
+        <v>17.79</v>
       </c>
       <c r="L3" s="9">
-        <v>3472.030029296875</v>
+        <v>3759.610107421875</v>
       </c>
       <c r="M3" s="9">
-        <v>414.86</v>
+        <v>473.03</v>
       </c>
       <c r="N3" s="9">
-        <v>11.95</v>
+        <v>12.58</v>
       </c>
       <c r="O3" s="9">
-        <v>836.92</v>
+        <v>794.79</v>
       </c>
       <c r="P3" s="9">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" s="9">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="S3" s="9">
-        <v>3457.829833984375</v>
+        <v>3720.4501953125</v>
       </c>
       <c r="T3" s="9">
-        <v>14.199999809265137</v>
+        <v>39.159999847412109</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
@@ -1129,7 +1135,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="9">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -1191,16 +1197,16 @@
         <v>27</v>
       </c>
       <c r="G5" s="9">
-        <v>46862</v>
+        <v>45181</v>
       </c>
       <c r="H5" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I5" s="9">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="J5" s="9">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>31</v>
@@ -1209,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="9">
-        <v>18.46</v>
+        <v>14.71</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>31</v>
@@ -1253,43 +1259,43 @@
         <v>27</v>
       </c>
       <c r="G6" s="9">
-        <v>27466</v>
+        <v>24367</v>
       </c>
       <c r="H6" s="9">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I6" s="9">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="J6" s="9">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="K6" s="9">
-        <v>8.4700000000000006</v>
+        <v>10.26</v>
       </c>
       <c r="L6" s="9">
-        <v>98.740005493164063</v>
+        <v>78.5</v>
       </c>
       <c r="M6" s="9">
-        <v>36.299999999999997</v>
+        <v>17.98</v>
       </c>
       <c r="N6" s="9">
-        <v>36.76</v>
+        <v>22.9</v>
       </c>
       <c r="O6" s="9">
-        <v>272.01</v>
+        <v>436.6</v>
       </c>
       <c r="P6" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="9">
         <v>1</v>
       </c>
       <c r="R6" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" s="9">
-        <v>80.959999084472656</v>
+        <v>60.720001220703125</v>
       </c>
       <c r="T6" s="9">
         <v>17.780000686645508</v>
@@ -1439,43 +1445,43 @@
         <v>27</v>
       </c>
       <c r="G9" s="9">
-        <v>21299</v>
+        <v>36597</v>
       </c>
       <c r="H9" s="9">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="I9" s="9">
-        <v>1.33</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J9" s="9">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="K9" s="9">
-        <v>10.91</v>
+        <v>8.33</v>
       </c>
       <c r="L9" s="9">
-        <v>348.39999389648438</v>
+        <v>401.010009765625</v>
       </c>
       <c r="M9" s="9">
-        <v>73</v>
+        <v>92.91</v>
       </c>
       <c r="N9" s="9">
-        <v>20.95</v>
+        <v>23.17</v>
       </c>
       <c r="O9" s="9">
-        <v>477.26</v>
+        <v>431.61</v>
       </c>
       <c r="P9" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="9">
         <v>1</v>
       </c>
       <c r="R9" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S9" s="9">
-        <v>281.17001342773438</v>
+        <v>333.77999877929688</v>
       </c>
       <c r="T9" s="9">
         <v>67.230003356933594</v>
@@ -1501,43 +1507,43 @@
         <v>27</v>
       </c>
       <c r="G10" s="9">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="H10" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="9">
-        <v>1.95</v>
+        <v>1.51</v>
       </c>
       <c r="J10" s="9">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="K10" s="9">
-        <v>100</v>
+        <v>33.33</v>
       </c>
       <c r="L10" s="9">
-        <v>111.26000213623047</v>
+        <v>55.630001068115234</v>
       </c>
       <c r="M10" s="9">
-        <v>3.89</v>
+        <v>4.53</v>
       </c>
       <c r="N10" s="9">
-        <v>3.5</v>
+        <v>8.14</v>
       </c>
       <c r="O10" s="9">
-        <v>2860.2</v>
+        <v>1228</v>
       </c>
       <c r="P10" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="9">
         <v>0</v>
       </c>
       <c r="R10" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10" s="9">
-        <v>111.26000213623047</v>
+        <v>55.630001068115234</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
@@ -1563,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="9">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
@@ -1572,7 +1578,7 @@
         <v>1.7</v>
       </c>
       <c r="J11" s="9">
-        <v>1.61</v>
+        <v>0.98</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>31</v>
@@ -1687,43 +1693,43 @@
         <v>27</v>
       </c>
       <c r="G13" s="9">
-        <v>36870</v>
+        <v>32924</v>
       </c>
       <c r="H13" s="9">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I13" s="9">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="J13" s="9">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="K13" s="9">
-        <v>15.48</v>
+        <v>21.43</v>
       </c>
       <c r="L13" s="9">
-        <v>450.41000366210938</v>
+        <v>499.61001586914063</v>
       </c>
       <c r="M13" s="9">
-        <v>41.45</v>
+        <v>27.65</v>
       </c>
       <c r="N13" s="9">
-        <v>9.1999999999999993</v>
+        <v>5.53</v>
       </c>
       <c r="O13" s="9">
-        <v>1086.5999999999999</v>
+        <v>1806.9</v>
       </c>
       <c r="P13" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="9">
         <v>2</v>
       </c>
       <c r="R13" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S13" s="9">
-        <v>270.60000610351563</v>
+        <v>319.80001831054688</v>
       </c>
       <c r="T13" s="9">
         <v>179.80999755859375</v>
@@ -1749,46 +1755,46 @@
         <v>27</v>
       </c>
       <c r="G14" s="9">
-        <v>65298</v>
+        <v>62827</v>
       </c>
       <c r="H14" s="9">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="I14" s="9">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="J14" s="9">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="K14" s="9">
-        <v>14.23</v>
+        <v>11.28</v>
       </c>
       <c r="L14" s="9">
-        <v>3052.47998046875</v>
+        <v>2673.280029296875</v>
       </c>
       <c r="M14" s="9">
-        <v>427.23</v>
+        <v>452.29</v>
       </c>
       <c r="N14" s="9">
-        <v>14</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="O14" s="9">
-        <v>714.48</v>
+        <v>591.04999999999995</v>
       </c>
       <c r="P14" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S14" s="9">
-        <v>3022.719970703125</v>
+        <v>2673.280029296875</v>
       </c>
       <c r="T14" s="9">
-        <v>29.760000228881836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
@@ -2493,16 +2499,16 @@
         <v>27</v>
       </c>
       <c r="G26" s="9">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="I26" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.5</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>31</v>
@@ -2511,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="9">
-        <v>0</v>
+        <v>14.61</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>31</v>
@@ -2555,7 +2561,7 @@
         <v>27</v>
       </c>
       <c r="G27" s="9">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
@@ -2617,16 +2623,16 @@
         <v>27</v>
       </c>
       <c r="G28" s="9">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="I28" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.5</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>31</v>
@@ -2635,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="9">
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>31</v>
@@ -2679,46 +2685,46 @@
         <v>27</v>
       </c>
       <c r="G29" s="9">
-        <v>49574</v>
+        <v>46021</v>
       </c>
       <c r="H29" s="9">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="J29" s="9">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="K29" s="9">
-        <v>7.63</v>
+        <v>8.33</v>
       </c>
       <c r="L29" s="9">
-        <v>1389.940185546875</v>
+        <v>945.30999755859375</v>
       </c>
       <c r="M29" s="9">
-        <v>184.69</v>
+        <v>142.52000000000001</v>
       </c>
       <c r="N29" s="9">
-        <v>13.29</v>
+        <v>15.08</v>
       </c>
       <c r="O29" s="9">
-        <v>752.58</v>
+        <v>663.28</v>
       </c>
       <c r="P29" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q29" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R29" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S29" s="9">
-        <v>1139.5999755859375</v>
+        <v>651.20001220703125</v>
       </c>
       <c r="T29" s="9">
-        <v>250.33999633789063</v>
+        <v>294.1099853515625</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
@@ -3051,46 +3057,46 @@
         <v>27</v>
       </c>
       <c r="G35" s="9">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1.34</v>
+      </c>
+      <c r="J35" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="K35" s="9">
+        <v>11.11</v>
       </c>
       <c r="L35" s="9">
-        <v>0</v>
+        <v>83.720001220703125</v>
       </c>
       <c r="M35" s="9">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>31</v>
+        <v>12.04</v>
+      </c>
+      <c r="N35" s="9">
+        <v>14.38</v>
+      </c>
+      <c r="O35" s="9">
+        <v>695.35</v>
       </c>
       <c r="P35" s="9">
         <v>0</v>
       </c>
       <c r="Q35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="9">
         <v>0</v>
       </c>
       <c r="T35" s="9">
-        <v>0</v>
+        <v>83.720001220703125</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
@@ -3110,7 +3116,7 @@
         <v>106</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -3175,49 +3181,110 @@
         <v>27</v>
       </c>
       <c r="G37" s="9">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1</v>
+      </c>
+      <c r="J37" s="9">
+        <v>1.86</v>
+      </c>
+      <c r="K37" s="9">
+        <v>12.5</v>
       </c>
       <c r="L37" s="9">
-        <v>0</v>
+        <v>67.230003356933594</v>
       </c>
       <c r="M37" s="9">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>31</v>
+        <v>7.97</v>
+      </c>
+      <c r="N37" s="9">
+        <v>11.85</v>
+      </c>
+      <c r="O37" s="9">
+        <v>843.54</v>
       </c>
       <c r="P37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="9">
         <v>0</v>
       </c>
       <c r="R37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="9">
-        <v>0</v>
+        <v>67.230003356933594</v>
       </c>
       <c r="T37" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="9">
+        <v>242</v>
+      </c>
+      <c r="H38" s="9">
+        <v>8</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="J38" s="9">
+        <v>3.31</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>3.54</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
+    </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="41" spans="1:20" ht="15.75" customHeight="1"/>

--- a/Relatorio_anuncios_patrocinados_07d_total_SP.xlsx
+++ b/Relatorio_anuncios_patrocinados_07d_total_SP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08efa3ad722ed28c/Aplicativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmdel\OneDrive\Aplicativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FAC6BFC-2BEA-4E42-8DBC-9DA237AD0493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1334178A-6936-4BC4-A632-4B23AE00D5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="111">
   <si>
     <t>Desde</t>
   </si>
@@ -244,7 +244,7 @@
   </si>
   <si>
     <r>
-      <t>Relatório de publicidade por anúncios patrocinados gerados em 28-jul-2025</t>
+      <t>Relatório de publicidade por anúncios patrocinados gerados em 02-ago-2025</t>
     </r>
     <r>
       <rPr>
@@ -271,10 +271,10 @@
     </r>
   </si>
   <si>
-    <t>21-jul-2025</t>
-  </si>
-  <si>
-    <t>27-jul-2025</t>
+    <t>26-jul-2025</t>
+  </si>
+  <si>
+    <t>01-ago-2025</t>
   </si>
   <si>
     <t>Ads 1kg nosso mel</t>
@@ -943,7 +943,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
@@ -1073,43 +1073,43 @@
         <v>27</v>
       </c>
       <c r="G3" s="9">
-        <v>93763</v>
+        <v>91286</v>
       </c>
       <c r="H3" s="9">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="I3" s="9">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="J3" s="9">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="9">
-        <v>17.79</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L3" s="9">
-        <v>3759.610107421875</v>
+        <v>3672.070068359375</v>
       </c>
       <c r="M3" s="9">
-        <v>473.03</v>
+        <v>454.85</v>
       </c>
       <c r="N3" s="9">
-        <v>12.58</v>
+        <v>12.39</v>
       </c>
       <c r="O3" s="9">
-        <v>794.79</v>
+        <v>807.31</v>
       </c>
       <c r="P3" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="9">
         <v>2</v>
       </c>
       <c r="R3" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S3" s="9">
-        <v>3720.4501953125</v>
+        <v>3632.909912109375</v>
       </c>
       <c r="T3" s="9">
         <v>39.159999847412109</v>
@@ -1135,16 +1135,16 @@
         <v>27</v>
       </c>
       <c r="G4" s="9">
-        <v>346</v>
+        <v>498</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.2</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>31</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="9">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>31</v>
@@ -1197,43 +1197,43 @@
         <v>27</v>
       </c>
       <c r="G5" s="9">
-        <v>45181</v>
+        <v>36654</v>
       </c>
       <c r="H5" s="9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I5" s="9">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="J5" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>31</v>
+        <v>0.11</v>
+      </c>
+      <c r="K5" s="9">
+        <v>7.14</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>103.31999206542969</v>
       </c>
       <c r="M5" s="9">
-        <v>14.71</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>31</v>
+        <v>10.87</v>
+      </c>
+      <c r="N5" s="9">
+        <v>10.52</v>
+      </c>
+      <c r="O5" s="9">
+        <v>950.51</v>
       </c>
       <c r="P5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
       </c>
       <c r="R5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="9">
-        <v>0</v>
+        <v>103.31999206542969</v>
       </c>
       <c r="T5" s="9">
         <v>0</v>
@@ -1259,46 +1259,46 @@
         <v>27</v>
       </c>
       <c r="G6" s="9">
-        <v>24367</v>
+        <v>22736</v>
       </c>
       <c r="H6" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I6" s="9">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="J6" s="9">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="K6" s="9">
-        <v>10.26</v>
+        <v>6.98</v>
       </c>
       <c r="L6" s="9">
-        <v>78.5</v>
+        <v>60.720001220703125</v>
       </c>
       <c r="M6" s="9">
-        <v>17.98</v>
+        <v>11.01</v>
       </c>
       <c r="N6" s="9">
-        <v>22.9</v>
+        <v>18.13</v>
       </c>
       <c r="O6" s="9">
-        <v>436.6</v>
+        <v>551.5</v>
       </c>
       <c r="P6" s="9">
         <v>3</v>
       </c>
       <c r="Q6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S6" s="9">
         <v>60.720001220703125</v>
       </c>
       <c r="T6" s="9">
-        <v>17.780000686645508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
@@ -1445,46 +1445,46 @@
         <v>27</v>
       </c>
       <c r="G9" s="9">
-        <v>36597</v>
+        <v>38249</v>
       </c>
       <c r="H9" s="9">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I9" s="9">
-        <v>1.1100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J9" s="9">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="K9" s="9">
-        <v>8.33</v>
+        <v>4.29</v>
       </c>
       <c r="L9" s="9">
-        <v>401.010009765625</v>
+        <v>166.88999938964844</v>
       </c>
       <c r="M9" s="9">
-        <v>92.91</v>
+        <v>49.22</v>
       </c>
       <c r="N9" s="9">
-        <v>23.17</v>
+        <v>29.49</v>
       </c>
       <c r="O9" s="9">
-        <v>431.61</v>
+        <v>339.07</v>
       </c>
       <c r="P9" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S9" s="9">
-        <v>333.77999877929688</v>
+        <v>166.88999938964844</v>
       </c>
       <c r="T9" s="9">
-        <v>67.230003356933594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
@@ -1507,43 +1507,43 @@
         <v>27</v>
       </c>
       <c r="G10" s="9">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="H10" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="9">
-        <v>1.51</v>
+        <v>0.64</v>
       </c>
       <c r="J10" s="9">
-        <v>0.97</v>
-      </c>
-      <c r="K10" s="9">
-        <v>33.33</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L10" s="9">
-        <v>55.630001068115234</v>
+        <v>0</v>
       </c>
       <c r="M10" s="9">
-        <v>4.53</v>
-      </c>
-      <c r="N10" s="9">
-        <v>8.14</v>
-      </c>
-      <c r="O10" s="9">
-        <v>1228</v>
+        <v>0.64</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="P10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="9">
         <v>0</v>
       </c>
       <c r="R10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="9">
-        <v>55.630001068115234</v>
+        <v>0</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>27</v>
       </c>
       <c r="G11" s="9">
-        <v>102</v>
+        <v>483</v>
       </c>
       <c r="H11" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I11" s="9">
-        <v>1.7</v>
+        <v>0.72</v>
       </c>
       <c r="J11" s="9">
-        <v>0.98</v>
+        <v>1.86</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>31</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <v>1.7</v>
+        <v>6.45</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>31</v>
@@ -1693,46 +1693,46 @@
         <v>27</v>
       </c>
       <c r="G13" s="9">
-        <v>32924</v>
+        <v>32165</v>
       </c>
       <c r="H13" s="9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I13" s="9">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="J13" s="9">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="K13" s="9">
-        <v>21.43</v>
+        <v>12.16</v>
       </c>
       <c r="L13" s="9">
-        <v>499.61001586914063</v>
+        <v>221.39999389648438</v>
       </c>
       <c r="M13" s="9">
-        <v>27.65</v>
+        <v>25.85</v>
       </c>
       <c r="N13" s="9">
-        <v>5.53</v>
+        <v>11.68</v>
       </c>
       <c r="O13" s="9">
-        <v>1806.9</v>
+        <v>856.48</v>
       </c>
       <c r="P13" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q13" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="S13" s="9">
-        <v>319.80001831054688</v>
+        <v>221.39999389648438</v>
       </c>
       <c r="T13" s="9">
-        <v>179.80999755859375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
@@ -1755,43 +1755,43 @@
         <v>27</v>
       </c>
       <c r="G14" s="9">
-        <v>62827</v>
+        <v>57381</v>
       </c>
       <c r="H14" s="9">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="I14" s="9">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="J14" s="9">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="K14" s="9">
-        <v>11.28</v>
+        <v>7.52</v>
       </c>
       <c r="L14" s="9">
-        <v>2673.280029296875</v>
+        <v>1537.5999755859375</v>
       </c>
       <c r="M14" s="9">
-        <v>452.29</v>
+        <v>280.23</v>
       </c>
       <c r="N14" s="9">
-        <v>16.920000000000002</v>
+        <v>18.23</v>
       </c>
       <c r="O14" s="9">
-        <v>591.04999999999995</v>
+        <v>548.69000000000005</v>
       </c>
       <c r="P14" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="9">
         <v>0</v>
       </c>
       <c r="R14" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="S14" s="9">
-        <v>2673.280029296875</v>
+        <v>1537.5999755859375</v>
       </c>
       <c r="T14" s="9">
         <v>0</v>
@@ -2499,16 +2499,16 @@
         <v>27</v>
       </c>
       <c r="G26" s="9">
-        <v>1210</v>
+        <v>9906</v>
       </c>
       <c r="H26" s="9">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9">
-        <v>2.4300000000000002</v>
+        <v>1.51</v>
       </c>
       <c r="J26" s="9">
-        <v>0.5</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>31</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="9">
-        <v>14.61</v>
+        <v>43.86</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>31</v>
@@ -2561,7 +2561,7 @@
         <v>27</v>
       </c>
       <c r="G27" s="9">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
@@ -2623,16 +2623,16 @@
         <v>27</v>
       </c>
       <c r="G28" s="9">
-        <v>804</v>
+        <v>3847</v>
       </c>
       <c r="H28" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I28" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.74</v>
       </c>
       <c r="J28" s="9">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>31</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="9">
-        <v>10.199999999999999</v>
+        <v>27.41</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>31</v>
@@ -2685,46 +2685,46 @@
         <v>27</v>
       </c>
       <c r="G29" s="9">
-        <v>46021</v>
+        <v>47206</v>
       </c>
       <c r="H29" s="9">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="I29" s="9">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="J29" s="9">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="K29" s="9">
-        <v>8.33</v>
+        <v>13.11</v>
       </c>
       <c r="L29" s="9">
-        <v>945.30999755859375</v>
+        <v>3249.719970703125</v>
       </c>
       <c r="M29" s="9">
-        <v>142.52000000000001</v>
+        <v>280.32</v>
       </c>
       <c r="N29" s="9">
-        <v>15.08</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="O29" s="9">
-        <v>663.28</v>
+        <v>1159.3</v>
       </c>
       <c r="P29" s="9">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Q29" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R29" s="9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="S29" s="9">
-        <v>651.20001220703125</v>
+        <v>2767.599853515625</v>
       </c>
       <c r="T29" s="9">
-        <v>294.1099853515625</v>
+        <v>482.1199951171875</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
@@ -3057,31 +3057,31 @@
         <v>27</v>
       </c>
       <c r="G35" s="9">
-        <v>598</v>
+        <v>1401</v>
       </c>
       <c r="H35" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I35" s="9">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="J35" s="9">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="K35" s="9">
-        <v>11.11</v>
+        <v>7.69</v>
       </c>
       <c r="L35" s="9">
         <v>83.720001220703125</v>
       </c>
       <c r="M35" s="9">
-        <v>12.04</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="N35" s="9">
-        <v>14.38</v>
+        <v>23.36</v>
       </c>
       <c r="O35" s="9">
-        <v>695.35</v>
+        <v>428.02</v>
       </c>
       <c r="P35" s="9">
         <v>0</v>
@@ -3181,31 +3181,31 @@
         <v>27</v>
       </c>
       <c r="G37" s="9">
-        <v>431</v>
+        <v>1296</v>
       </c>
       <c r="H37" s="9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="J37" s="9">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="K37" s="9">
-        <v>12.5</v>
+        <v>4.17</v>
       </c>
       <c r="L37" s="9">
         <v>67.230003356933594</v>
       </c>
       <c r="M37" s="9">
-        <v>7.97</v>
+        <v>22.53</v>
       </c>
       <c r="N37" s="9">
-        <v>11.85</v>
+        <v>33.51</v>
       </c>
       <c r="O37" s="9">
-        <v>843.54</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="P37" s="9">
         <v>1</v>
@@ -3243,43 +3243,43 @@
         <v>27</v>
       </c>
       <c r="G38" s="9">
-        <v>242</v>
+        <v>1273</v>
       </c>
       <c r="H38" s="9">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="J38" s="9">
-        <v>3.31</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>31</v>
+        <v>2.44</v>
+      </c>
+      <c r="K38" s="9">
+        <v>3.23</v>
       </c>
       <c r="L38" s="9">
-        <v>0</v>
+        <v>67.230003356933594</v>
       </c>
       <c r="M38" s="9">
-        <v>3.54</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>31</v>
+        <v>23.71</v>
+      </c>
+      <c r="N38" s="9">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="O38" s="9">
+        <v>283.55</v>
       </c>
       <c r="P38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="9">
         <v>0</v>
       </c>
       <c r="R38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="9">
-        <v>0</v>
+        <v>67.230003356933594</v>
       </c>
       <c r="T38" s="9">
         <v>0</v>
